--- a/PCB/JLCPCB REV1/cpl-correction.xlsx
+++ b/PCB/JLCPCB REV1/cpl-correction.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="170">
   <si>
     <t>Designator</t>
   </si>
@@ -303,12 +303,6 @@
     <t>R3</t>
   </si>
   <si>
-    <t>82.425000</t>
-  </si>
-  <si>
-    <t>-49.300000</t>
-  </si>
-  <si>
     <t>R4</t>
   </si>
   <si>
@@ -532,6 +526,9 @@
   </si>
   <si>
     <t>Err2</t>
+  </si>
+  <si>
+    <t>-49.100000</t>
   </si>
 </sst>
 </file>
@@ -888,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -905,7 +902,7 @@
     <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -919,32 +916,32 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="6">
@@ -952,24 +949,25 @@
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6">
-        <f t="shared" ref="H2:H59" si="0">F2+E2+G2</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <f>F2+E2+G2</f>
+        <v>180</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
       <c r="F3" s="6">
@@ -977,24 +975,25 @@
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <f>F3+E3+G3</f>
+        <v>180</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
         <v>180</v>
       </c>
       <c r="F4" s="6">
@@ -1002,24 +1001,25 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6">
-        <f t="shared" si="0"/>
+        <f>F4+E4+G4</f>
         <v>360</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="2">
         <v>180</v>
       </c>
       <c r="F5" s="6">
@@ -1027,24 +1027,25 @@
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6">
-        <f t="shared" si="0"/>
+        <f>F5+E5+G5</f>
         <v>360</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="2">
         <v>180</v>
       </c>
       <c r="F6" s="6">
@@ -1054,185 +1055,193 @@
         <v>180</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="0"/>
+        <f>F6+E6+G6</f>
         <v>270</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2">
         <v>180</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <f>F7+E7+G7</f>
+        <v>180</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2">
         <v>0</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <f>F8+E8+G8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <f>F9+E9+G9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2">
         <v>0</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <f>F10+E10+G10</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2">
         <v>180</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <f>F11+E11+G11</f>
+        <v>180</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2">
         <v>180</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <f>F12+E12+G12</f>
+        <v>180</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2">
         <v>180</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <f>F13+E13+G13</f>
+        <v>180</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="2">
         <v>180</v>
       </c>
       <c r="F14" s="6">
@@ -1240,162 +1249,169 @@
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6">
-        <f t="shared" si="0"/>
+        <f>F14+E14+G14</f>
         <v>360</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2">
         <v>0</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <f>F15+E15+G15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="2">
         <v>90</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <f>F16+E16+G16</f>
+        <v>90</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="D17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="2">
         <v>90</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <f>F17+E17+G17</f>
+        <v>90</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="D18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="2">
         <v>-90</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6">
-        <f t="shared" si="0"/>
+        <f>F18+E18+G18</f>
         <v>-90</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="D19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="2">
         <v>90</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <f>F19+E19+G19</f>
+        <v>90</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="D20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="2">
         <v>90</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <f>F20+E20+G20</f>
+        <v>90</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="D21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="2">
         <v>0</v>
       </c>
       <c r="F21" s="6"/>
@@ -1403,24 +1419,25 @@
         <v>270</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="0"/>
+        <f>F21+E21+G21</f>
         <v>270</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="5">
+      <c r="D22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="2">
         <v>180</v>
       </c>
       <c r="F22" s="6">
@@ -1428,24 +1445,25 @@
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6">
-        <f t="shared" si="0"/>
+        <f>F22+E22+G22</f>
         <v>360</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="5">
+      <c r="D23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="2">
         <v>0</v>
       </c>
       <c r="F23" s="6">
@@ -1453,24 +1471,25 @@
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <f>F23+E23+G23</f>
+        <v>180</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="5">
+      <c r="D24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="2">
         <v>180</v>
       </c>
       <c r="F24" s="6">
@@ -1478,24 +1497,25 @@
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6">
-        <f t="shared" si="0"/>
+        <f>F24+E24+G24</f>
         <v>360</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="D25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="2">
         <v>-90</v>
       </c>
       <c r="F25" s="6">
@@ -1503,24 +1523,25 @@
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <f>F25+E25+G25</f>
+        <v>90</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="5">
+      <c r="D26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="2">
         <v>-90</v>
       </c>
       <c r="F26" s="6">
@@ -1528,24 +1549,25 @@
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <f>F26+E26+G26</f>
+        <v>90</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="5">
+      <c r="D27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="2">
         <v>180</v>
       </c>
       <c r="F27" s="6">
@@ -1555,24 +1577,25 @@
         <v>-180</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <f>F27+E27+G27</f>
+        <v>90</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="5">
+      <c r="D28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="2">
         <v>180</v>
       </c>
       <c r="F28" s="6">
@@ -1582,24 +1605,25 @@
         <v>-180</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <f>F28+E28+G28</f>
+        <v>90</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="5">
+      <c r="D29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="2">
         <v>0</v>
       </c>
       <c r="F29" s="6"/>
@@ -1607,24 +1631,25 @@
         <v>180</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <f>F29+E29+G29</f>
+        <v>180</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="5">
+      <c r="D30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="2">
         <v>0</v>
       </c>
       <c r="F30" s="6"/>
@@ -1632,680 +1657,709 @@
         <v>180</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <f>F30+E30+G30</f>
+        <v>180</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="5">
+      <c r="D31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="2">
         <v>-90</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6">
-        <f t="shared" si="0"/>
+        <f>F31+E31+G31</f>
         <v>-90</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="5">
+      <c r="D32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="2">
         <v>0</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <f>F32+E32+G32</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="5">
-        <v>0</v>
+      <c r="B33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="2">
+        <v>180</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <f>F33+E33+G33</f>
+        <v>180</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="5">
+      <c r="D34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="2">
         <v>90</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <f>F34+E34+G34</f>
+        <v>90</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="5">
+      <c r="D35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="2">
         <v>180</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <f>F35+E35+G35</f>
+        <v>180</v>
+      </c>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="5">
+      <c r="B36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="2">
         <v>180</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <f>F36+E36+G36</f>
+        <v>180</v>
+      </c>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="5">
+      <c r="D37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="2">
         <v>180</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <f>F37+E37+G37</f>
+        <v>180</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="5">
+      <c r="D38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="2">
         <v>180</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <f>F38+E38+G38</f>
+        <v>180</v>
+      </c>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="5">
+        <v>108</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="2">
         <v>180</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <f>F39+E39+G39</f>
+        <v>180</v>
+      </c>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="5">
+      <c r="D40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="2">
         <v>-90</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6">
-        <f t="shared" si="0"/>
+        <f>F40+E40+G40</f>
         <v>-90</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B41" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="5">
+      <c r="C41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="2">
         <v>90</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <f>F41+E41+G41</f>
+        <v>90</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="5">
+      <c r="D42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="2">
         <v>-90</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6">
-        <f t="shared" si="0"/>
+        <f>F42+E42+G42</f>
         <v>-90</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="5">
+      <c r="C43" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="2">
         <v>90</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <f>F43+E43+G43</f>
+        <v>90</v>
+      </c>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="5">
+      <c r="D44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="2">
         <v>-90</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6">
-        <f t="shared" si="0"/>
+        <f>F44+E44+G44</f>
         <v>-90</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="5">
+      <c r="D45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="2">
         <v>0</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <f>F45+E45+G45</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="5">
+      <c r="D46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="2">
         <v>0</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <f>F46+E46+G46</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="5">
+      <c r="D47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="2">
         <v>180</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <f>F47+E47+G47</f>
+        <v>180</v>
+      </c>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="5">
+      <c r="D48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="2">
         <v>0</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <f>F48+E48+G48</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E49" s="5">
+        <v>134</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="2">
         <v>0</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <f>F49+E49+G49</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" s="5">
+        <v>136</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="2">
         <v>180</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <f>F50+E50+G50</f>
+        <v>180</v>
+      </c>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E51" s="5">
+        <v>138</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="2">
         <v>0</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <f>F51+E51+G51</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E52" s="5">
+      <c r="D52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="2">
         <v>0</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <f>F52+E52+G52</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E53" s="5">
+      <c r="D53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="2">
         <v>90</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <f>F53+E53+G53</f>
+        <v>90</v>
+      </c>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E54" s="5">
+      <c r="D54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="2">
         <v>180</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <f>F54+E54+G54</f>
+        <v>180</v>
+      </c>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E55" s="5">
+      <c r="D55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="2">
         <v>-90</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6">
-        <f t="shared" si="0"/>
+        <f>F55+E55+G55</f>
         <v>-90</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="6">
+        <v>90</v>
+      </c>
+      <c r="G56" s="6">
+        <v>180</v>
+      </c>
+      <c r="H56" s="6">
+        <f>F56+E56+G56</f>
+        <v>270</v>
+      </c>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" s="5" t="s">
+      <c r="B57" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E56" s="5">
-        <v>0</v>
-      </c>
-      <c r="F56" s="6">
-        <v>90</v>
-      </c>
-      <c r="G56" s="6">
-        <v>180</v>
-      </c>
-      <c r="H56" s="6">
-        <f t="shared" si="0"/>
+      <c r="C57" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="6">
+        <v>90</v>
+      </c>
+      <c r="G57" s="6">
+        <v>180</v>
+      </c>
+      <c r="H57" s="6">
+        <f>F57+E57+G57</f>
         <v>270</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B57" s="5" t="s">
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="B58" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57" s="5">
-        <v>0</v>
-      </c>
-      <c r="F57" s="6">
-        <v>90</v>
-      </c>
-      <c r="G57" s="6">
-        <v>180</v>
-      </c>
-      <c r="H57" s="6">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="5" t="s">
+      <c r="C58" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="D58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="2">
+        <v>180</v>
+      </c>
+      <c r="F58" s="6">
+        <v>90</v>
+      </c>
+      <c r="G58" s="6">
+        <v>180</v>
+      </c>
+      <c r="H58" s="6">
+        <f>F58+E58+G58</f>
+        <v>450</v>
+      </c>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="B59" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E58" s="5">
-        <v>180</v>
-      </c>
-      <c r="F58" s="6">
-        <v>90</v>
-      </c>
-      <c r="G58" s="6">
-        <v>180</v>
-      </c>
-      <c r="H58" s="6">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="5" t="s">
+      <c r="C59" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E59" s="5">
+      <c r="D59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="2">
         <v>90</v>
       </c>
       <c r="F59" s="6">
@@ -2313,24 +2367,25 @@
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6">
-        <f t="shared" si="0"/>
+        <f>F59+E59+G59</f>
         <v>270</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E60" s="5">
+      <c r="D60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="2">
         <v>90</v>
       </c>
       <c r="F60" s="6">
@@ -2343,29 +2398,30 @@
         <f>F60+E60+G60</f>
         <v>360</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="4"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:9">
       <c r="A62" s="4"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:9">
       <c r="A63" s="4"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:9">
       <c r="A64" s="4"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
